--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_015.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_015.xlsx
@@ -31,46 +31,25 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295019AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Standby air compressor operation</t>
-  </si>
-  <si>
-    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
-  </si>
-  <si>
-    <t>(295003AA1.02) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Emergency generators</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295038EK2.09) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Post‑accident sample system </t>
-  </si>
-  <si>
-    <t>(295037EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Recirculation pump trip/runback</t>
-  </si>
-  <si>
-    <t>(295026EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(295021AA1.05) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor recirculation</t>
-  </si>
-  <si>
-    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AK2.11) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(295024EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Suppression pool spray</t>
-  </si>
-  <si>
-    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295030EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool makeup system(s)</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295026EK2.04) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295024EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell flooding</t>
+  </si>
+  <si>
+    <t>(295006AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Decay heat generation and removal</t>
   </si>
   <si>
     <t>(600000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm reset panel</t>
@@ -79,291 +58,312 @@
     <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
   </si>
   <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295023AK2.06) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation (Mark III)</t>
-  </si>
-  <si>
-    <t>(295027EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Containment spray</t>
-  </si>
-  <si>
-    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
-  </si>
-  <si>
-    <t>(295008AA2.01) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(500000EK2.09) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell nitrogen purge</t>
-  </si>
-  <si>
-    <t>(295013AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Suppression pool cooling operation</t>
-  </si>
-  <si>
-    <t>(295009AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Jet pump net positive suction head</t>
-  </si>
-  <si>
-    <t>(295014AA1.10) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) HPCS</t>
-  </si>
-  <si>
-    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
-  </si>
-  <si>
-    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
-  </si>
-  <si>
-    <t>(215003K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
-  </si>
-  <si>
-    <t>(217000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(262001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Uninterruptible power supply (switchyard UPS)</t>
-  </si>
-  <si>
-    <t>(209001K4.05) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Pump minimum flow</t>
-  </si>
-  <si>
-    <t>(400000A2.10) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Spent fuel pool cooling system heat exchanger tube leak</t>
-  </si>
-  <si>
-    <t>(205000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Service water</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(263000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(215004K2.01) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SRMS channels/detectors</t>
-  </si>
-  <si>
-    <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
-  </si>
-  <si>
-    <t>(215005K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(259002A3.12) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Transfer from three-element to one-element control</t>
-  </si>
-  <si>
-    <t>(239002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Tailpipe temperature monitoring</t>
-  </si>
-  <si>
-    <t>(209002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(223002K4.07) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Physical separation of system components (to prevent localized environmental factors, electrical faults, and physical events from impairing system response)</t>
-  </si>
-  <si>
-    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
-  </si>
-  <si>
-    <t>(203000K6.17) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Suppression pool suction strainer clogging</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291001K1.08) VALVES (CFR: 41.3) Emergency/manual operation of motor-operated valves with motor inoperable</t>
-  </si>
-  <si>
-    <t>(264000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Emergency generator room temperature</t>
-  </si>
-  <si>
-    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
-  </si>
-  <si>
-    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
-  </si>
-  <si>
-    <t>(215003K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(226001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.5 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(290003K2.04) (SF9 CRV) CONTROL ROOM VENTILATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Control room HVAC logic</t>
-  </si>
-  <si>
-    <t>(271000A4.01) Ability to manually operate and/or monitor the (SF9 OG) OFFGAS SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset system isolations</t>
-  </si>
-  <si>
-    <t>(290001K3.01) Knowledge of the effect that a loss or malfunction of the (SF5 SC) SECONDARY CONTAINMENT will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Offsite radioactive release rates</t>
-  </si>
-  <si>
-    <t>(510001A3.01) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts/stops</t>
-  </si>
-  <si>
-    <t>(201001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.5-7 / 41.10 / 45.1-6 / 45.12-13) Air-operated control valves</t>
-  </si>
-  <si>
-    <t>(288000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 PVS) PLANT VENTILATION SYSTEMS and the following systems: (CFR: 41.4 / 41.5 / 45.7 / 45.8) Heating, ventilation, and air conditioning system cooling water systems</t>
-  </si>
-  <si>
-    <t>(202001K4.01) Knowledge of (SF1, SF4 RS) RECIRCULATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) 2/3 core coverage</t>
-  </si>
-  <si>
-    <t>(216000A2.08) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Elevated containment temperature</t>
-  </si>
-  <si>
-    <t>(204000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.7 / 45.7) Feedwater system</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+    <t>(295023AK2.01) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Fuel handling equipment</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
+  </si>
+  <si>
+    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
+  </si>
+  <si>
+    <t>(295025EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
+  </si>
+  <si>
+    <t>(700000AK2.09) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295038EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295001AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
+  </si>
+  <si>
+    <t>(295034EK2.06) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295007AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
+  </si>
+  <si>
+    <t>(295010AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell temperature increase</t>
+  </si>
+  <si>
+    <t>(295020AA1.08) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295013AA2.01) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(400000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(218000K4.04) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Ensure adequate pneumatic supply to ADS valves</t>
+  </si>
+  <si>
+    <t>(262001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Offsite power</t>
+  </si>
+  <si>
+    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
+  </si>
+  <si>
+    <t>(259002A3.08) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) FWCI system initiation</t>
+  </si>
+  <si>
+    <t>(215003A2.01) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Power supply degradation</t>
+  </si>
+  <si>
+    <t>(223002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Secondary containment integrity</t>
+  </si>
+  <si>
+    <t>(215005A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) APRM (gain adjustment factor)</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(211000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(203000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Testable check valves</t>
+  </si>
+  <si>
+    <t>(263000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Systems with DC components (e.g., valves, motors, solenoids, instruments)</t>
+  </si>
+  <si>
+    <t>(215004K4.04) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Changing detector position</t>
+  </si>
+  <si>
+    <t>(209002K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Keep fill system</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t>(510000A3.01) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts</t>
+  </si>
+  <si>
+    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
+  </si>
+  <si>
+    <t>(205000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Decay heat removal</t>
+  </si>
+  <si>
+    <t>(262002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291002K1.01) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Operational characteristics of venturis and orifices</t>
+  </si>
+  <si>
+    <t>(264000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water system</t>
+  </si>
+  <si>
+    <t>(217000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Resetting isolations</t>
+  </si>
+  <si>
+    <t>(400000K3.17) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Reactor condensate system</t>
+  </si>
+  <si>
+    <t>(218000K4.03) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) ADS logic control</t>
+  </si>
+  <si>
+    <t>(262001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Emergency generators</t>
+  </si>
+  <si>
+    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
+  </si>
+  <si>
+    <t>(239003K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Standby gas treatment system</t>
+  </si>
+  <si>
+    <t>(290002K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Automatic depressurization system</t>
+  </si>
+  <si>
+    <t>(271000K3.02) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Offsite release rate</t>
+  </si>
+  <si>
+    <t>(226001K4.12) Knowledge of (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of inadvertent containment spray activation</t>
+  </si>
+  <si>
+    <t>(241000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.7 / 45.7) Main turbine steam flow</t>
+  </si>
+  <si>
+    <t>(510001K2.03) (SF8 CWS*) CIRCULATING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Cooling tower fans</t>
+  </si>
+  <si>
+    <t>(245000A3.05) Ability to monitor automatic operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.7 / 45.7) Control valve operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290003A2.03) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(290001K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Secondary containment integrity</t>
+  </si>
+  <si>
+    <t>(215001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.5 / 45.5) Drive speed</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
+  </si>
+  <si>
+    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(293006K1.10) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define cavitation</t>
+  </si>
+  <si>
+    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295030EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) </t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Containment radiation levels (Mark III)</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AA2.01) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003A2.03) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A2.13) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(234000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) Fuel pool ventilation</t>
+  </si>
+  <si>
+    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(223001A2.09) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Vacuum breaker malfunction</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
   </si>
   <si>
-    <t>(292008K1.12) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Describe reactor power and period response prior to reaching the POAH</t>
-  </si>
-  <si>
-    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(293006K1.20) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Describe the problems that will occur in emergency core cooling systems if the pumps are operated at lower than design flow for extended periods of time</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(700000AA2.01) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operating point on the generator capability curve</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295002AA2.06) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Condensate flow</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000A2.16) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to alternate decay heat removal system</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(234000A4.03) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Mode switch</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(245000A2.01) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trip</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295008</t>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295036</t>
   </si>
   <si>
     <t>295007</t>
   </si>
   <si>
-    <t>500000</t>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295020</t>
   </si>
   <si>
     <t>295013</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295014</t>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>510000</t>
   </si>
   <si>
     <t>300000</t>
   </si>
   <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>218000</t>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>264000</t>
   </si>
   <si>
     <t>217000</t>
   </si>
   <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>202002</t>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>271000</t>
   </si>
   <si>
     <t>226001</t>
   </si>
   <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
     <t>290003</t>
   </si>
   <si>
-    <t>271000</t>
-  </si>
-  <si>
     <t>290001</t>
   </si>
   <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293003</t>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292007</t>
   </si>
   <si>
     <t>293006</t>
   </si>
   <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295020</t>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295022</t>
   </si>
   <si>
     <t>234000</t>
   </si>
   <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>245000</t>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>223001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D28" t="s">
         <v>110</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
         <v>113</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
         <v>114</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
         <v>110</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D43" t="s">
         <v>113</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D45" t="s">
         <v>114</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D50" t="s">
         <v>110</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D56" t="s">
         <v>110</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,7 +1970,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
         <v>113</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D62" t="s">
         <v>114</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D77" t="s">
         <v>109</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D84" t="s">
         <v>109</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
